--- a/Export Run Reaults/Test.xlsx
+++ b/Export Run Reaults/Test.xlsx
@@ -18,10 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
-  <si>
-    <t>64778db23f4e9b671bfc74f5420e6844b5cf259224b8</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>trackingNumberLabel</t>
   </si>
@@ -39,6 +36,12 @@
   </si>
   <si>
     <t>password</t>
+  </si>
+  <si>
+    <t>Ab123456</t>
+  </si>
+  <si>
+    <t>CheckGD</t>
   </si>
 </sst>
 </file>
@@ -227,10 +230,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -529,54 +532,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="12.35546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.27734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.46484375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
-        <v>5522599310</v>
+      <c r="D2" s="3">
+        <v>5522599675</v>
       </c>
       <c r="E2" s="3">
-        <v>5522631877</v>
+        <v>5522631548</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5522631548</v>
       </c>
     </row>
   </sheetData>
@@ -592,12 +602,12 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" ht="15.1" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -611,9 +621,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
@@ -624,18 +634,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.41796875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="9.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.41796875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1"/>
+    <row r="1" customFormat="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -649,9 +670,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="16384" width="9.078125" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
